--- a/inputfiles/fmaxStopScoreML.xlsx
+++ b/inputfiles/fmaxStopScoreML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/magd5549_ox_ac_uk/Documents/Bioinformatics/AutoTagsCRISPR/inputfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{FDDCCAD5-2734-4F2A-B9A0-B5A05D740E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C22A55C-818B-4FCA-A52D-5C0F7F7C3E75}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{FDDCCAD5-2734-4F2A-B9A0-B5A05D740E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3BA76D-A14B-49E4-849C-0C043B7CA5AD}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{12D6D13D-8C18-0443-94FC-958665B4EEEC}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{12D6D13D-8C18-0443-94FC-958665B4EEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoringGen2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>+</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>minDistance:17</t>
-  </si>
-  <si>
-    <t>-22:20</t>
   </si>
   <si>
     <t>non_CDS_side</t>
@@ -562,10 +559,10 @@
     <tableColumn id="8" xr3:uid="{70582706-F173-4D35-91C0-3273E326265D}" name="PAM_outside_CDS" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{80C3FF4D-E92D-40A7-B454-BB43022E5E6D}" name="SRS_in_CDS" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{DAED2107-203A-417A-9BB6-A8186736D9B8}" name="CDS_boundary" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{DF691771-688F-415D-B500-503847BCC6EA}" name="non_CDS_boundary" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{2E706FEB-81DC-478B-99DA-538C9BD7355D}" name="SRS_boundary" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{12BA298E-2154-406A-A60E-0361F024AF8D}" name="mutable_PAM" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{6B410169-16E6-441A-BDCD-98893D138891}" name="cut_site" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{DF691771-688F-415D-B500-503847BCC6EA}" name="non_CDS_boundary" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{2E706FEB-81DC-478B-99DA-538C9BD7355D}" name="SRS_boundary" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{12BA298E-2154-406A-A60E-0361F024AF8D}" name="mutable_PAM" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{6B410169-16E6-441A-BDCD-98893D138891}" name="cut_site" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -898,7 +895,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -925,7 +922,7 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -955,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>28</v>
@@ -1149,7 +1146,7 @@
         <v>36</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>38</v>
@@ -1243,7 +1240,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
